--- a/36協定データ.xlsx
+++ b/36協定データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkato\Documents\vscode\RPAPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11B951-61E4-4D7F-BB72-1F2B5DFE14FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4493F392-D878-463C-8F41-3410863BF769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-8310" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28000" yWindow="2960" windowWidth="28190" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Excel通番</t>
     <rPh sb="5" eb="7">
@@ -386,38 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間外労働をさせる必要のある具体的自由[事業場外](プルダウン)</t>
-    <rPh sb="0" eb="5">
-      <t>ジカンガイロウドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>グタイテキジユウ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ジギョウジョウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間外労働をさせる必要のある具体的自由[事業場外](自由記入)</t>
-    <rPh sb="0" eb="5">
-      <t>ジカンガイロウドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>グタイテキジユウ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>ジユウキニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>所定労働時間(1日)時間</t>
     <rPh sb="8" eb="9">
       <t>ニチ</t>
@@ -521,6 +489,56 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の種類(プルダウン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の種類(自由記入)</t>
+    <rPh sb="6" eb="10">
+      <t>ジユウキニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度更新/算定基礎/年末調整</t>
+    <rPh sb="0" eb="4">
+      <t>ネンドコウシン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>サンテイキソ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ネンマツチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の種類[事業場外](プルダウン)</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ジギョウジョウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務の種類[事業場外](自由記入)</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ジユウキニュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +591,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -586,12 +616,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -872,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -894,7 +927,7 @@
     <col min="23" max="24" width="6.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,38 +1006,44 @@
       <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AG1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AK1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AL1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1056,20 +1095,23 @@
       <c r="Z2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2">
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2">
         <v>8</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>15</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:38">
       <c r="D3" s="1"/>
     </row>
   </sheetData>
